--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7425"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -52,19 +52,16 @@
     <t>validarClave</t>
   </si>
   <si>
-    <t>nombreBanco</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>tipoDocumentoInscripcion</t>
-  </si>
-  <si>
-    <t>numeroDocumentoInscripcion</t>
+    <t>tipoCuenta</t>
+  </si>
+  <si>
+    <t>numeroCuenta</t>
+  </si>
+  <si>
+    <t>tipoContraordenacion</t>
+  </si>
+  <si>
+    <t>numeroCheque</t>
   </si>
   <si>
     <t>1</t>
@@ -103,10 +100,16 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Bancolombia</t>
-  </si>
-  <si>
-    <t>Ahorros</t>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>406-139740-01</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rango de cheques </t>
   </si>
 </sst>
 </file>
@@ -114,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -142,83 +145,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,8 +167,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +250,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,34 +273,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,17 +528,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,11 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,7 +591,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,36 +611,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -625,165 +628,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
@@ -1134,13 +1132,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
@@ -1149,14 +1147,12 @@
     <col min="7" max="8" width="15.4285714285714" customWidth="1"/>
     <col min="9" max="10" width="23.4285714285714" customWidth="1"/>
     <col min="11" max="11" width="20.7142857142857" customWidth="1"/>
-    <col min="12" max="13" width="16.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="27.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="12.8571428571429"/>
-    <col min="16" max="16" width="21.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="22.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="16.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="12.8571428571429"/>
+    <col min="15" max="15" width="27.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1187,10 +1183,10 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1205,103 +1201,113 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:16">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:17">
-      <c r="A2" s="15" t="s">
+    <row r="3" s="1" customFormat="1" ht="38" customHeight="1" spans="1:16">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="4">
-        <v>20580133845</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1044512658</v>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15.75" spans="1:17">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+    <row r="4" s="2" customFormat="1" ht="15.75" spans="2:7">
+      <c r="B4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="15" spans="13:13">
-      <c r="M15" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,12 @@
     <t>numeroCheque</t>
   </si>
   <si>
+    <t>rangoDesde</t>
+  </si>
+  <si>
+    <t>rangoHasta</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -73,7 +79,7 @@
     <t>Cédula de ciudadanía</t>
   </si>
   <si>
-    <t>testing10</t>
+    <t>zcreditos10</t>
   </si>
   <si>
     <t>1234</t>
@@ -103,7 +109,7 @@
     <t>Corriente</t>
   </si>
   <si>
-    <t>406-139740-01</t>
+    <t>406-158690-06</t>
   </si>
   <si>
     <t>Cheque</t>
@@ -117,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -146,6 +152,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -153,7 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,39 +196,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,22 +259,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,31 +275,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,85 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,97 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,28 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +558,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,15 +578,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,163 +611,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
@@ -1132,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1152,7 +1162,7 @@
     <col min="15" max="15" width="27.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1183,10 +1193,10 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1201,113 +1211,127 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:16">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
+    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:18">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3210</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="38" customHeight="1" spans="1:18">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="K3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="38" customHeight="1" spans="1:16">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1">
         <v>2</v>
       </c>
+      <c r="Q3" s="4">
+        <v>3211</v>
+      </c>
+      <c r="R3" s="4">
+        <v>3216</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.75" spans="2:7">
-      <c r="B4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -166,7 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,32 +196,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +240,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -258,38 +280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,15 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -554,6 +545,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +578,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -634,13 +634,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,124 +656,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1320,10 +1320,10 @@
         <v>2</v>
       </c>
       <c r="Q3" s="4">
-        <v>3211</v>
+        <v>3202</v>
       </c>
       <c r="R3" s="4">
-        <v>3216</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.75" spans="2:7">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -124,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -166,7 +166,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,22 +203,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,46 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -282,6 +267,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -289,7 +282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,169 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,17 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,8 +554,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -582,27 +578,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -623,24 +602,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,125 +655,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1265,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="1">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1320,10 +1320,10 @@
         <v>2</v>
       </c>
       <c r="Q3" s="4">
-        <v>3202</v>
+        <v>3220</v>
       </c>
       <c r="R3" s="4">
-        <v>3239</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.75" spans="2:7">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOPS\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/cheque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA3C43-27F2-4A79-B63E-E6345D096C23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,28 +531,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="10" width="23.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625"/>
-    <col min="15" max="15" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,7 +607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -651,12 +654,12 @@
         <v>29</v>
       </c>
       <c r="P2" s="1">
-        <v>65717</v>
+        <v>65728</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -706,13 +709,13 @@
         <v>2</v>
       </c>
       <c r="Q3" s="4">
-        <v>65715</v>
+        <v>65729</v>
       </c>
       <c r="R3" s="4">
-        <v>65716</v>
+        <v>65730</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -720,8 +723,8 @@
       <c r="G4" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/cheque/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOPS\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F52FC-6908-44B9-A2EF-B0FA1FC3F655}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -128,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,27 +532,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="15" max="15" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,7 +608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -654,12 +655,12 @@
         <v>29</v>
       </c>
       <c r="P2" s="1">
-        <v>65728</v>
+        <v>65734</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -709,13 +710,13 @@
         <v>2</v>
       </c>
       <c r="Q3" s="4">
-        <v>65729</v>
+        <v>65735</v>
       </c>
       <c r="R3" s="4">
-        <v>65730</v>
+        <v>65736</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5">
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -724,7 +725,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>29</v>
       </c>
       <c r="P2" s="1">
-        <v>65728</v>
+        <v>65740</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -705,14 +705,11 @@
       <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1">
-        <v>2</v>
-      </c>
       <c r="Q3" s="4">
-        <v>65729</v>
+        <v>65735</v>
       </c>
       <c r="R3" s="4">
-        <v>65730</v>
+        <v>65736</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/cheque/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AA095A-BEB8-435E-A8AF-56346A57D3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -128,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,27 +532,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="15" max="15" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,7 +608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -654,12 +655,12 @@
         <v>29</v>
       </c>
       <c r="P2" s="1">
-        <v>65740</v>
+        <v>65765</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -706,13 +707,13 @@
         <v>30</v>
       </c>
       <c r="Q3" s="4">
-        <v>65735</v>
+        <v>65762</v>
       </c>
       <c r="R3" s="4">
-        <v>65736</v>
+        <v>65763</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5">
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -721,7 +722,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/cheque/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AA095A-BEB8-435E-A8AF-56346A57D3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -129,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,27 +531,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="10" width="23.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" customWidth="1"/>
-    <col min="15" max="15" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,7 +607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -655,12 +654,12 @@
         <v>29</v>
       </c>
       <c r="P2" s="1">
-        <v>65765</v>
+        <v>65785</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -707,13 +706,13 @@
         <v>30</v>
       </c>
       <c r="Q3" s="4">
-        <v>65762</v>
+        <v>65772</v>
       </c>
       <c r="R3" s="4">
-        <v>65763</v>
+        <v>65773</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -722,7 +721,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/cheque/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -86,6 +76,9 @@
     <t>Cédula de ciudadanía</t>
   </si>
   <si>
+    <t>usercheques01</t>
+  </si>
+  <si>
     <t>1234</t>
   </si>
   <si>
@@ -113,23 +106,26 @@
     <t>Corriente</t>
   </si>
   <si>
+    <t>406-157890-08</t>
+  </si>
+  <si>
     <t>Cheque</t>
   </si>
   <si>
     <t xml:space="preserve">Rango de cheques </t>
-  </si>
-  <si>
-    <t>usercheques01</t>
-  </si>
-  <si>
-    <t>406-157890-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +147,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +311,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -204,42 +530,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -526,32 +1135,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.1619047619048" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.8285714285714" customWidth="1"/>
+    <col min="7" max="8" width="15.5047619047619" customWidth="1"/>
+    <col min="9" max="10" width="23.5047619047619" customWidth="1"/>
+    <col min="11" max="11" width="20.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="16.8285714285714" customWidth="1"/>
+    <col min="15" max="15" width="27.8285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,112 +1216,112 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:18">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="5">
         <v>664775789</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="P2" s="1">
-        <v>65785</v>
+        <v>65805</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" s="1" customFormat="1" ht="38" customHeight="1" spans="1:18">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="5">
         <v>664775789</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="K3" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q3" s="4">
-        <v>65772</v>
+        <v>65806</v>
       </c>
       <c r="R3" s="4">
-        <v>65773</v>
+        <v>65807</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" ht="15.75" spans="2:7">
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -720,10 +1329,13 @@
       <c r="G4" s="8"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4">
+      <formula1/>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -648,7 +648,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="3">
-        <v>65805</v>
+        <v>65700</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -648,7 +648,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="3">
-        <v>65700</v>
+        <v>65701</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -121,18 +121,34 @@
   </si>
   <si>
     <t>pruebasregistro48</t>
+  </si>
+  <si>
+    <t>marcontra02</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>406-10148006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,21 +222,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -611,11 +629,11 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>22</v>
@@ -641,14 +659,14 @@
       <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>30</v>
+      <c r="N2" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="3">
-        <v>65701</v>
+        <v>798490</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -663,11 +681,11 @@
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>22</v>
@@ -701,10 +719,10 @@
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
-        <v>65806</v>
+        <v>798491</v>
       </c>
       <c r="R3" s="3">
-        <v>65807</v>
+        <v>798492</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="38.1" customHeight="1">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -136,12 +136,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,23 +229,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -629,7 +637,7 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="12" t="s">

--- a/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/cheque/contraordenarcheque.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\cheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B614C8D-239B-425E-BBF8-5CE1100618CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -75,9 +76,6 @@
     <t>rangoHasta</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Cédula de ciudadanía</t>
   </si>
   <si>
@@ -129,19 +127,33 @@
     <t>6666</t>
   </si>
   <si>
-    <t>406-10148006</t>
+    <t>406-101480-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,23 +241,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -265,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,25 +599,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -627,59 +681,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>18</v>
+    <row r="2" spans="1:18" s="1" customFormat="1">
+      <c r="A2" s="12">
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>664775789</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="3">
-        <v>798490</v>
+        <v>798514</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="38.1" customHeight="1">
+    <row r="3" spans="1:18" s="1" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -687,53 +741,53 @@
         <v>664775789</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
-        <v>798491</v>
+        <v>798515</v>
       </c>
       <c r="R3" s="3">
-        <v>798492</v>
+        <v>798516</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="38.1" customHeight="1">
+    <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -741,43 +795,43 @@
         <v>664775789</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
@@ -787,7 +841,7 @@
         <v>65970</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="38.1" customHeight="1">
+    <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -795,43 +849,43 @@
         <v>700100</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3">
